--- a/merchantXlsxFiles/paymnet-link-form.xlsx
+++ b/merchantXlsxFiles/paymnet-link-form.xlsx
@@ -1,41 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cashewlaptop/files/works/json-to-xslt/merchantXlsxFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDB3DE0-C2A0-7D45-96B1-74D5E3FDB21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.storeDetails</t>
+  </si>
+  <si>
+    <t>Store details</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.store</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.storeCurrency</t>
+  </si>
+  <si>
+    <t>Store currency</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.paymentOption</t>
+  </si>
+  <si>
+    <t>Payment option</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.customerDetails</t>
+  </si>
+  <si>
+    <t>Customer details</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.customerFirstName</t>
+  </si>
+  <si>
+    <t>Customer first name</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.customerLastName</t>
+  </si>
+  <si>
+    <t>Customer last name</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.customerEmailAddress</t>
+  </si>
+  <si>
+    <t>Customer email address</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.countryCode</t>
+  </si>
+  <si>
+    <t>Country code</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.phoneNumber</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.requireCustomerID</t>
+  </si>
+  <si>
+    <t>Require the customer ID</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.shippingBillingInformation</t>
+  </si>
+  <si>
+    <t>Shipping / Billing information</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.shippingAddressLine1</t>
+  </si>
+  <si>
+    <t>Shipping address line 1</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.shippingAddressLine2</t>
+  </si>
+  <si>
+    <t>Shipping address line 2</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.poBox</t>
+  </si>
+  <si>
+    <t>PO Box</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.useDifferentAddressForBilling</t>
+  </si>
+  <si>
+    <t>Use a different address for billing</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.billingAddressLine1</t>
+  </si>
+  <si>
+    <t>Billing address line 1</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.billingAddressLine2</t>
+  </si>
+  <si>
+    <t>Billing address line 2</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.emirates</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.itemDetails</t>
+  </si>
+  <si>
+    <t>Item details</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.quantity</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.item</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.unitPrice</t>
+  </si>
+  <si>
+    <t>Unit price</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.addItem</t>
+  </si>
+  <si>
+    <t>Add item</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>paymentLinkForm.sendPaymentLink</t>
+  </si>
+  <si>
+    <t>Send payment link</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +239,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,247 +578,342 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>String</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Value</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>paymentLinkForm.storeDetails</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Store details</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>paymentLinkForm.store</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Store</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>paymentLinkForm.storeCurrency</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Store currency</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>paymentLinkForm.paymentOption</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Payment option</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>paymentLinkForm.customerDetails</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Customer details</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>paymentLinkForm.customerFirstName</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Customer first name</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>paymentLinkForm.customerLastName</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Customer last name</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>paymentLinkForm.customerEmailAddress</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Customer email address</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>paymentLinkForm.countryCode</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Country code</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>paymentLinkForm.phoneNumber</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Phone number</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>paymentLinkForm.requireCustomerID</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Require the customer ID</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>paymentLinkForm.shippingBillingInformation</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Shipping / Billing information</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>paymentLinkForm.shippingAddressLine1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Shipping address line 1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>paymentLinkForm.city</v>
-      </c>
-      <c r="B15" t="str">
-        <v>City</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>paymentLinkForm.country</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Country</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>paymentLinkForm.shippingAddressLine2</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Shipping address line 2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>paymentLinkForm.poBox</v>
-      </c>
-      <c r="B18" t="str">
-        <v>PO Box</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>paymentLinkForm.useDifferentAddressForBilling</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Use a different address for billing</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>paymentLinkForm.billingAddressLine1</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Billing address line 1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>paymentLinkForm.billingAddressLine2</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Billing address line 2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>paymentLinkForm.emirates</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Emirates</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>paymentLinkForm.itemDetails</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Item details</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>paymentLinkForm.quantity</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Qty</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>paymentLinkForm.item</v>
-      </c>
-      <c r="B25" t="str">
-        <v>Item</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>paymentLinkForm.unitPrice</v>
-      </c>
-      <c r="B26" t="str">
-        <v>Unit price</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>paymentLinkForm.addItem</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Add item</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>paymentLinkForm.cancel</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Cancel</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>paymentLinkForm.sendPaymentLink</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Send payment link</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B29"/>
+    <ignoredError sqref="A2:B29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>